--- a/rice.xlsx
+++ b/rice.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17038\Documents\ML_Python_LFS_II\mlforfinance-novdec\4_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A4DD98-4AE8-4604-AEC9-8F3F5EC06CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED0324B-53F3-4CE8-8274-7C3FFA7C9B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{55EA9B8E-3A5E-4A2A-9D50-A45A106AB3DC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{4D2EE98E-C222-4306-B88E-CB3BFB8B1E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+  <si>
+    <t>Price ($)</t>
+  </si>
+  <si>
+    <t>main_dishes</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Kichadi-Upma</t>
+  </si>
+  <si>
+    <t>Parotta Korma</t>
+  </si>
+  <si>
+    <t>Veg. Kotthu Parotta</t>
+  </si>
+  <si>
+    <t>Poori Masala</t>
+  </si>
+  <si>
+    <t>Poori Channa</t>
+  </si>
+  <si>
+    <t>Idly</t>
+  </si>
+  <si>
+    <t>Sambar Idly</t>
+  </si>
+  <si>
+    <t>Chilli Idly</t>
+  </si>
+  <si>
+    <t>Mini Idly</t>
+  </si>
+  <si>
+    <t>Plain Dosai</t>
+  </si>
+  <si>
+    <t>Thakkali Dosai</t>
+  </si>
+  <si>
+    <t>Podi Dosai</t>
+  </si>
+  <si>
+    <t>Masala Dosai</t>
+  </si>
+  <si>
+    <t>Pizza Dosai</t>
+  </si>
+  <si>
+    <t>Plain Uttappam</t>
+  </si>
+  <si>
+    <t>Uttappam + veg.</t>
+  </si>
+  <si>
+    <t>Idiyappam</t>
+  </si>
+  <si>
+    <t>Onion Chilli Dosai</t>
+  </si>
+  <si>
+    <t>Kids Cheese Cone Dosai</t>
+  </si>
+  <si>
+    <t>Ghee Roast</t>
+  </si>
+  <si>
+    <t>Chettinad Kuzhi Paniyaram</t>
+  </si>
+  <si>
+    <t>Dosa-Vadai Curry</t>
+  </si>
+  <si>
+    <t>Vadai Curry</t>
+  </si>
+  <si>
+    <t>Anniversary Spl Meal</t>
+  </si>
+  <si>
+    <t>Extra Chutney</t>
+  </si>
+  <si>
+    <t>Extra Sambar/ Kurma/Masala</t>
+  </si>
+  <si>
+    <t>rice_dishes</t>
+  </si>
+  <si>
+    <t>Price($)</t>
+  </si>
   <si>
     <t>Ven Pongal</t>
   </si>
@@ -82,18 +176,15 @@
   </si>
   <si>
     <t>Plum Lemonade</t>
-  </si>
-  <si>
-    <t>rice_dishes</t>
-  </si>
-  <si>
-    <t>Price($)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,15 +229,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -463,157 +555,621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF4B2A5-7EE0-4286-A1F7-D0B43AF7053D}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464133CD-94E2-4ED5-9C3E-C7957A614DC9}">
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A18" sqref="A18:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.578125" customWidth="1"/>
-    <col min="2" max="2" width="6.734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3125" customWidth="1"/>
+    <col min="6" max="6" width="24.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="C13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="C14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="C15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="23.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="C16" s="5"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1"/>
+      <c r="C17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75518465-B993-49A4-A48F-F7B9D2709F21}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>